--- a/test.xlsx
+++ b/test.xlsx
@@ -9,39 +9,615 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Key</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>red</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>price</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="199">
+  <si>
+    <t>Лето СТ</t>
+  </si>
+  <si>
+    <t>Легион с П/К</t>
+  </si>
+  <si>
+    <t>Легион с брюками</t>
+  </si>
+  <si>
+    <t>Передовик</t>
+  </si>
+  <si>
+    <t>Производственник</t>
+  </si>
+  <si>
+    <t>Костюм ИТР</t>
+  </si>
+  <si>
+    <t>Инженер</t>
+  </si>
+  <si>
+    <t>Фаворит женский</t>
+  </si>
+  <si>
+    <t>Стандарт</t>
+  </si>
+  <si>
+    <t>Рейнир</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лада </t>
+  </si>
+  <si>
+    <t>Куртка Вива СТ</t>
+  </si>
+  <si>
+    <t>Полукомбинезон Вива СТ</t>
+  </si>
+  <si>
+    <t>Куртка Хамертон</t>
+  </si>
+  <si>
+    <t>Полукомбинезон Хамертон</t>
+  </si>
+  <si>
+    <t>Брюки Хамертон</t>
+  </si>
+  <si>
+    <t>Халат Фаворит</t>
+  </si>
+  <si>
+    <t>Халат Технолог мужской</t>
+  </si>
+  <si>
+    <t>Халат Технолог женский</t>
+  </si>
+  <si>
+    <t>Халат рабочий мужской</t>
+  </si>
+  <si>
+    <t>Костюм Фаворит с ПК</t>
+  </si>
+  <si>
+    <t>Костюм Фаворит с брюками</t>
+  </si>
+  <si>
+    <t>Костюм Стандарт 100% Х/Б</t>
+  </si>
+  <si>
+    <t>Стандарт женский</t>
+  </si>
+  <si>
+    <t>Брюки рабочие</t>
+  </si>
+  <si>
+    <t>Костюм сварщика со спилком</t>
+  </si>
+  <si>
+    <t>Костюм молескиновый</t>
+  </si>
+  <si>
+    <t>Костюм сварщика брезентовый</t>
+  </si>
+  <si>
+    <t>Костюм «Марс» 1 класс защиты</t>
+  </si>
+  <si>
+    <t>Костюм «Зевс» 1 класс защиты</t>
+  </si>
+  <si>
+    <t>Костюм Дорожник</t>
+  </si>
+  <si>
+    <t>Костюм Стандарт-Трасса</t>
+  </si>
+  <si>
+    <t>Жилет сигнальный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Костюм Сингал-3 </t>
+  </si>
+  <si>
+    <t>Плащ Рыбак синий</t>
+  </si>
+  <si>
+    <t>Плащ влагозащитный</t>
+  </si>
+  <si>
+    <t>Костюм рыбак</t>
+  </si>
+  <si>
+    <t>Плащ Extra Vision</t>
+  </si>
+  <si>
+    <t>Костюм Extra Vision</t>
+  </si>
+  <si>
+    <t>Костюм антигнус</t>
+  </si>
+  <si>
+    <t>Костюм Антигнус, Duplex</t>
+  </si>
+  <si>
+    <t>Костюм «Горка СТ»</t>
+  </si>
+  <si>
+    <t>Костюм «Горка»</t>
+  </si>
+  <si>
+    <t>Костюм противоэнцефалитный, с ловушками</t>
+  </si>
+  <si>
+    <t>Костюм «Противоэнцефалитный-Люкс»</t>
+  </si>
+  <si>
+    <t>Костюм Лесник</t>
+  </si>
+  <si>
+    <t>Костюм противоэнцефалитный</t>
+  </si>
+  <si>
+    <t>Костюм «Балтика СТ»</t>
+  </si>
+  <si>
+    <t>Костюм «ИТР»</t>
+  </si>
+  <si>
+    <t>Костюм «Зимник СТ»</t>
+  </si>
+  <si>
+    <t>Костюм «Урал-Комфорт»</t>
+  </si>
+  <si>
+    <t>Костюм «Фаворит-2 СТ»</t>
+  </si>
+  <si>
+    <t>Костюм «Легион-С»</t>
+  </si>
+  <si>
+    <t>Костюм «Мастер-Д»</t>
+  </si>
+  <si>
+    <t>Костюм «Мастер-Д» (оксфорд)</t>
+  </si>
+  <si>
+    <t>Костюм «Фаворит-Люкс»</t>
+  </si>
+  <si>
+    <t>Куртка «Бригадир СТ»</t>
+  </si>
+  <si>
+    <t>Куртка «Вега СТ»</t>
+  </si>
+  <si>
+    <t>Куртка «Зима»</t>
+  </si>
+  <si>
+    <t>Куртка «Эребус У» мужская</t>
+  </si>
+  <si>
+    <t>Куртка «Урал-Комфорт»</t>
+  </si>
+  <si>
+    <t>Куртка «Снежинка СТ»</t>
+  </si>
+  <si>
+    <t>Полукомбинезон «Зима»</t>
+  </si>
+  <si>
+    <t>Полукомбинезон «Снежинка СТ»</t>
+  </si>
+  <si>
+    <t>Костюм «Святогор»</t>
+  </si>
+  <si>
+    <t>Костюм «Святогор» КМФ зеленый</t>
+  </si>
+  <si>
+    <t>Костюм «Святогор», цифра</t>
+  </si>
+  <si>
+    <t>Рубашка охранника (короткий рукав)</t>
+  </si>
+  <si>
+    <t>Костюм «Охрана СТ»</t>
+  </si>
+  <si>
+    <t>Куртка «Охрана СТ»</t>
+  </si>
+  <si>
+    <t>Брюки «Охрана»</t>
+  </si>
+  <si>
+    <t>Костюм «Виктория»</t>
+  </si>
+  <si>
+    <t>Костюм медицинский Стандарт, женский</t>
+  </si>
+  <si>
+    <t>Костюм универсальный</t>
+  </si>
+  <si>
+    <t>Халат медицинский Лиза</t>
+  </si>
+  <si>
+    <t>Халат медицинский женский</t>
+  </si>
+  <si>
+    <t>Халат медицинский Стандарт-плюс</t>
+  </si>
+  <si>
+    <t>Халат медицинский Авицена</t>
+  </si>
+  <si>
+    <t>Халат медицинский Грация</t>
+  </si>
+  <si>
+    <t>Халат медицинский Адель</t>
+  </si>
+  <si>
+    <t>Халат медицинский женский Стандарт, тк тиси отбел</t>
+  </si>
+  <si>
+    <t>Халат Алиса</t>
+  </si>
+  <si>
+    <t>Костюм "Дуэт"</t>
+  </si>
+  <si>
+    <t>Костюм шеф-повара</t>
+  </si>
+  <si>
+    <t>Халат Анна</t>
+  </si>
+  <si>
+    <t>Сапоги КОМФОРТ КОЖАНЫЕ С МП</t>
+  </si>
+  <si>
+    <t>Сапоги КОМФОРТ КОЖАНЫЕ</t>
+  </si>
+  <si>
+    <t>Сапоги КОМФОРТ С МП</t>
+  </si>
+  <si>
+    <t>Сапоги КОМФОРТ</t>
+  </si>
+  <si>
+    <t>Сапоги ОПТИМА С МП</t>
+  </si>
+  <si>
+    <t>Сапоги ОПТИМА</t>
+  </si>
+  <si>
+    <t>Сапоги ПРАКТИК С МП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сапоги ПРАКТИК </t>
+  </si>
+  <si>
+    <t>Ботинки КОМФОРТ С МП</t>
+  </si>
+  <si>
+    <t>Ботинки КОМФОРТ</t>
+  </si>
+  <si>
+    <t>Ботинки ОПТИМА С МП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ботинки ОПТИМА </t>
+  </si>
+  <si>
+    <t>Ботинки ПРАКТИК С МП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ботинки ПРАКТИК </t>
+  </si>
+  <si>
+    <t>Полуботинки КОМФОРТ С МП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Полуботинки КОМФОРТ </t>
+  </si>
+  <si>
+    <t>Полуботинки ОПТИМА С МП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Полуботинки ОПТИМА </t>
+  </si>
+  <si>
+    <t>Полуботинки ПРАКТИК С МП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Полуботинки ПРАКТИК </t>
+  </si>
+  <si>
+    <t>Сандалии КОМФОРТ С МП</t>
+  </si>
+  <si>
+    <t>Сандалии КОМФОРТ</t>
+  </si>
+  <si>
+    <t>Сапоги КОМФОРТ КОЖАНЫЕ УТЕПЛЕННЫЕ (Т)</t>
+  </si>
+  <si>
+    <t>Сапоги КОМФОРТ С МП УТЕПЛЕННЫЕ</t>
+  </si>
+  <si>
+    <t>Сапоги КОМФОРТ УТЕПЛЕННЫЕ</t>
+  </si>
+  <si>
+    <t>Сапоги ОПТИМА С МП УТЕПЛЕННЫЕ</t>
+  </si>
+  <si>
+    <t>Сапоги ОПТИМА  УТЕПЛЕННЫЕ</t>
+  </si>
+  <si>
+    <t>Сапоги ПРАКТИК С МП УТЕПЛЕННЫЕ</t>
+  </si>
+  <si>
+    <t>Сапоги ПРАКТИК УТЕПЛЕННЫЕ</t>
+  </si>
+  <si>
+    <t>Ботинки КОМФОРТ-ОМОН УТЕПЛЕННЫЕ</t>
+  </si>
+  <si>
+    <t>Ботинки КОМФОРТ С МП УТЕПЛЕННЫЕ</t>
+  </si>
+  <si>
+    <t>Ботинки КОМФОРТ УТЕПЛЕННЫЕ</t>
+  </si>
+  <si>
+    <t>Ботинки ОПТИМА С МП УТЕПЛЕННЫЕ</t>
+  </si>
+  <si>
+    <t>Ботинки ОПТИМА УТЕПЛЕННЫЕ</t>
+  </si>
+  <si>
+    <t>Ботинки ПРАКТИК С МП УТЕПЛЕННЫЕ</t>
+  </si>
+  <si>
+    <t>Ботинки ПРАКТИК УТЕПЛЕННЫЕ</t>
+  </si>
+  <si>
+    <t>Сапоги ТРЕЙСЕР С КП/КС УТЕПЛЕННЫЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сапоги ТРЕЙСЕР С КП/КС </t>
+  </si>
+  <si>
+    <t>Ботинки ТРЕЙСЕР С КП/КС УТЕПЛЕННЫЕ</t>
+  </si>
+  <si>
+    <t>Ботинки ТРЕЙСЕР С КПКС</t>
+  </si>
+  <si>
+    <t>Полуботинки ТРЕЙСЕР С КП/КС</t>
+  </si>
+  <si>
+    <t>Ботинки ТРЕЙСЕР ДЛЯ СВАРЩИКА</t>
+  </si>
+  <si>
+    <t>Полуботинки ТРЕЙСЕР ДЛЯ ИТР</t>
+  </si>
+  <si>
+    <t>Сапоги НИТРО С КП УТЕПЛЕННЫЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сапоги НИТРО С КП </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сапоги НИТРО </t>
+  </si>
+  <si>
+    <t>Ботинки НИТРО С КП УТЕПЛЕННЫЕ</t>
+  </si>
+  <si>
+    <t>Ботинки НИТРО С КП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ботинки НИТРО </t>
+  </si>
+  <si>
+    <t>Ботинки АСФАЛЬТОУКЛАДЧИК</t>
+  </si>
+  <si>
+    <t>Ботинки СВАРЩИК ПРЕМИУМ</t>
+  </si>
+  <si>
+    <t>Очки защитные тип Люцерна</t>
+  </si>
+  <si>
+    <t>Очки защитные прямая вентиляция NEW</t>
+  </si>
+  <si>
+    <t>Очки защитные непрямая вентиляция</t>
+  </si>
+  <si>
+    <t>Очки закрытые сварщика 3Н1Г2</t>
+  </si>
+  <si>
+    <t>Очки защитные 3М 2700 (2721, 2720, 2722)</t>
+  </si>
+  <si>
+    <t>Щиток защитный НБТ-1 Люкс Свона</t>
+  </si>
+  <si>
+    <t>Щиток защитный НБТ-2 Исток</t>
+  </si>
+  <si>
+    <t>Очки защитные открытые RZ-15 START (PC) 11540</t>
+  </si>
+  <si>
+    <t>Очки защитные открытые О35 ВИЗИОН (PL) 13511</t>
+  </si>
+  <si>
+    <t>Очки прямая вентиляция ЗП2 PANORAMA (PL) 30211</t>
+  </si>
+  <si>
+    <t>Очки непрямая вентиляция ЗН4 ЭТАЛОН (РС) 20411</t>
+  </si>
+  <si>
+    <t>Очки открытые О88 SURGUT (2C-1.2 PC) 18840</t>
+  </si>
+  <si>
+    <t>Очки открытые О88 SURGUT (5-2,5 PC) 18843</t>
+  </si>
+  <si>
+    <t>Очки непрямая вентиляция ЗНД2 ADMIRAL (5) 23231</t>
+  </si>
+  <si>
+    <t>Щиток НБТ1 ВИЗИОН 413130</t>
+  </si>
+  <si>
+    <t>Щиток защитный лицевой НБТ2 ВИЗИОН 423130</t>
+  </si>
+  <si>
+    <t>Каска СОМЗ-55 Favori®T Trek® белая 75117</t>
+  </si>
+  <si>
+    <t>Каска Исток  белый)</t>
+  </si>
+  <si>
+    <t>Каска Исток (оранжевый)</t>
+  </si>
+  <si>
+    <t>Каска СОМЗ-55 Favori®T Trek® оранжевая 75114</t>
+  </si>
+  <si>
+    <t>Каска СОМЗ-55 Favorit Trek RAPID белая 75617</t>
+  </si>
+  <si>
+    <t>Каска СОМЗ-55 Favorit Trek RAPID оранж 75614</t>
+  </si>
+  <si>
+    <t>Беруши 3М 1100</t>
+  </si>
+  <si>
+    <t>Беруши 3М 1120</t>
+  </si>
+  <si>
+    <t>Беруши 3М 1130 со шнурком</t>
+  </si>
+  <si>
+    <t>Беруши 3М 1110 со шнурком</t>
+  </si>
+  <si>
+    <t>Наушники "ИСТОК"</t>
+  </si>
+  <si>
+    <t>Наушники "ИСТОК" (на каску)</t>
+  </si>
+  <si>
+    <t>Наушники СОМЗ-3 ПУМА 60300</t>
+  </si>
+  <si>
+    <t>Наушники СОМЗ - 1 ЯГУАР 60100</t>
+  </si>
+  <si>
+    <t>Наушники СОМЗ - 5 ШТУРМ 60105</t>
+  </si>
+  <si>
+    <t>Наушники 3М Peltor Optime I</t>
+  </si>
+  <si>
+    <t>Наушники 3М Peltor Optime I (на каску)</t>
+  </si>
+  <si>
+    <t>Респиратор ШБ-1 Л-200 НРЗ</t>
+  </si>
+  <si>
+    <t>Респиратор НРЗ-0101 FFP1</t>
+  </si>
+  <si>
+    <t>Респиратор Исток 1С складной до 4 ПДК</t>
+  </si>
+  <si>
+    <t>Респиратор Исток 1СК с клапаном</t>
+  </si>
+  <si>
+    <t>Респиратор У-2К</t>
+  </si>
+  <si>
+    <t>Фильтр сменный Исток 300 (РПГ-67)</t>
+  </si>
+  <si>
+    <t>Респиратор «Исток 300» (РПГ-67)</t>
+  </si>
+  <si>
+    <t>Респиратор 3М 9101</t>
+  </si>
+  <si>
+    <t>Респиратор 3М 8101</t>
+  </si>
+  <si>
+    <t>Респиратор 3М 9152</t>
+  </si>
+  <si>
+    <t>Респиратор 3М 8102</t>
+  </si>
+  <si>
+    <t>Респиратор 3М 8112</t>
+  </si>
+  <si>
+    <t>Респиратор 3М 9312</t>
+  </si>
+  <si>
+    <t>Респиратор 3М 9915</t>
+  </si>
+  <si>
+    <t>Респиратор 3М 9332</t>
+  </si>
+  <si>
+    <t>Комбинезон "Каспер" (30 г/кв.м)</t>
+  </si>
+  <si>
+    <t>Комбинезон "Каспер" (40 г/кв.м)</t>
+  </si>
+  <si>
+    <t>Комбинезон "Каспер" ламинированный (60 г/кв.м)</t>
+  </si>
+  <si>
+    <t>Комбинезон "Каспер", (60 г/кв.м)</t>
+  </si>
+  <si>
+    <t>Полукомбинезон ИТР</t>
+  </si>
+  <si>
+    <t>Плащ-дождевик с капюшоном</t>
+  </si>
+  <si>
+    <t>Футболка</t>
+  </si>
+  <si>
+    <t>Фартук рабочий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Костюм ПВХ «Poseidon WPL» (тем.синий) </t>
+  </si>
+  <si>
+    <t>Костюм Дока 2 ( василёк с желтым)</t>
+  </si>
+  <si>
+    <t>Костюм Дока 2 ( зелёный с жёлтым)</t>
+  </si>
+  <si>
+    <t>Костюм Дока 2 (синий с желтым)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">плащ ПВХ «Poseidon WPL» (тем.синий) </t>
+  </si>
+  <si>
+    <t>Комбинезон рабочий ( василёк с синим )</t>
+  </si>
+  <si>
+    <t>Комбинезон рабочий ( чёрный )</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,7 +626,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="RobotoCondensedLight"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF282828"/>
+      <name val="RobotoRegular"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF282828"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF282828"/>
+      <name val="PfdintextcondproRegular"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Helv"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -58,15 +681,51 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -74,16 +733,133 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный_Лист1" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -385,44 +1161,2368 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C225"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="C157" sqref="C157:C225"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="33.140625" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11">
+        <v>9715</v>
+      </c>
+      <c r="C1" s="13">
+        <v>61111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" s="11">
+        <v>4848</v>
+      </c>
+      <c r="C2" s="13">
+        <v>61112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>4549</v>
+      </c>
+      <c r="C3" s="13">
+        <v>61113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" s="11">
+        <v>4998</v>
+      </c>
+      <c r="C4" s="13">
+        <v>61114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B5" s="11">
+        <v>4479</v>
+      </c>
+      <c r="C5" s="13">
+        <v>61115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B6" s="11">
+        <v>7392</v>
+      </c>
+      <c r="C6" s="13">
+        <v>61116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B7" s="11">
+        <v>7022</v>
+      </c>
+      <c r="C7" s="13">
+        <v>61117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>9116</v>
+      </c>
+      <c r="C8" s="13">
+        <v>61118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12">
+        <v>3564</v>
+      </c>
+      <c r="C9" s="13">
+        <v>61119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11">
+        <v>6573</v>
+      </c>
+      <c r="C10" s="13">
+        <v>61120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="11">
+        <v>6573</v>
+      </c>
+      <c r="C11" s="13">
+        <v>61121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="B12" s="11">
+        <v>4928</v>
+      </c>
+      <c r="C12" s="13">
+        <v>61122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="11">
+        <v>7840</v>
+      </c>
+      <c r="C13" s="13">
+        <v>61123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="11">
+        <v>6723</v>
+      </c>
+      <c r="C14" s="13">
+        <v>61124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="11">
+        <v>7550</v>
+      </c>
+      <c r="C15" s="13">
+        <v>61125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="11">
+        <v>9336</v>
+      </c>
+      <c r="C16" s="13">
+        <v>61126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="11">
+        <v>7550</v>
+      </c>
+      <c r="C17" s="13">
+        <v>61127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="13">
+        <v>61128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="11">
+        <v>3053</v>
+      </c>
+      <c r="C19" s="13">
+        <v>61129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="11">
+        <v>3053</v>
+      </c>
+      <c r="C20" s="13">
+        <v>61130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="11">
+        <v>3053</v>
+      </c>
+      <c r="C21" s="13">
+        <v>61131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="11">
+        <v>2684</v>
+      </c>
+      <c r="C22" s="13">
+        <v>61132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="11">
+        <v>10120</v>
+      </c>
+      <c r="C23" s="13">
+        <v>61133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="11">
+        <v>9116</v>
+      </c>
+      <c r="C24" s="13">
+        <v>61134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="11">
+        <v>5896</v>
+      </c>
+      <c r="C25" s="13">
+        <v>61135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="11">
+        <v>6573</v>
+      </c>
+      <c r="C26" s="13">
+        <v>61136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="11">
+        <v>4039</v>
+      </c>
+      <c r="C27" s="13">
+        <v>61137</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="11">
+        <v>2085</v>
+      </c>
+      <c r="C28" s="13">
+        <v>61138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="7"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="14"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="11">
+        <v>16816</v>
+      </c>
+      <c r="C30" s="13">
+        <v>61139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="11">
+        <v>9416</v>
+      </c>
+      <c r="C31" s="13">
+        <v>61140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="11">
+        <v>6872</v>
+      </c>
+      <c r="C32" s="13">
+        <v>61141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="11">
+        <v>40155</v>
+      </c>
+      <c r="C33" s="13">
+        <v>61142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="11">
+        <v>31777</v>
+      </c>
+      <c r="C34" s="13">
+        <v>61143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="8"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="14"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="11">
+        <v>6794</v>
+      </c>
+      <c r="C36" s="13">
+        <v>61144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="11">
+        <v>4400</v>
+      </c>
+      <c r="C37" s="13">
+        <v>61145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="11">
+        <v>1408</v>
+      </c>
+      <c r="C38" s="13">
+        <v>61146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="11">
+        <v>8818</v>
+      </c>
+      <c r="C39" s="13">
+        <v>61147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="11">
+        <v>1408</v>
+      </c>
+      <c r="C40" s="13">
+        <v>61148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="8"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="14"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="11">
+        <v>3951</v>
+      </c>
+      <c r="C42" s="13">
+        <v>61149</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="11">
+        <v>3352</v>
+      </c>
+      <c r="C43" s="13">
+        <v>61150</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="11">
+        <v>5596</v>
+      </c>
+      <c r="C44" s="13">
+        <v>61151</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="11">
+        <v>6344</v>
+      </c>
+      <c r="C45" s="13">
+        <v>61152</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" s="11">
+        <v>6344</v>
+      </c>
+      <c r="C46" s="13">
+        <v>61153</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" s="11">
+        <v>8668</v>
+      </c>
+      <c r="C47" s="13">
+        <v>61154</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="11">
+        <v>8668</v>
+      </c>
+      <c r="C48" s="13">
+        <v>61155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="7"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="14"/>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" s="11">
+        <v>7242</v>
+      </c>
+      <c r="C50" s="13">
+        <v>61156</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51" s="11">
+        <v>5280</v>
+      </c>
+      <c r="C51" s="13">
+        <v>61157</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52" s="11">
+        <v>12927</v>
+      </c>
+      <c r="C52" s="13">
+        <v>61158</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75">
+      <c r="A53" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" s="11">
+        <v>15470</v>
+      </c>
+      <c r="C53" s="13">
+        <v>61159</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="45.75">
+      <c r="A54" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54" s="11">
+        <v>6873</v>
+      </c>
+      <c r="C54" s="13">
+        <v>61160</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="30">
+      <c r="A55" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B55" s="11">
+        <v>7541</v>
+      </c>
+      <c r="C55" s="13">
+        <v>61161</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75">
+      <c r="A56" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B56" s="11"/>
+      <c r="C56" s="13">
+        <v>61162</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="30.75">
+      <c r="A57" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B57" s="11">
+        <v>5896</v>
+      </c>
+      <c r="C57" s="13">
+        <v>61163</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="7"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="14"/>
+    </row>
+    <row r="59" spans="1:3" ht="15.75">
+      <c r="A59" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B59" s="11">
+        <v>11282</v>
+      </c>
+      <c r="C59" s="13">
+        <v>61164</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.75">
+      <c r="A60" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B60" s="11">
+        <v>31926</v>
+      </c>
+      <c r="C60" s="13">
+        <v>61165</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.75">
+      <c r="A61" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B61" s="11">
+        <v>14053</v>
+      </c>
+      <c r="C61" s="13">
+        <v>61166</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15.75">
+      <c r="A62" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B62" s="11">
+        <v>23400</v>
+      </c>
+      <c r="C62" s="13">
+        <v>61167</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15.75">
+      <c r="A63" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B63" s="11">
+        <v>14423</v>
+      </c>
+      <c r="C63" s="13">
+        <v>61168</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.75">
+      <c r="A64" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B64" s="11">
+        <v>11061</v>
+      </c>
+      <c r="C64" s="13">
+        <v>61169</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15.75">
+      <c r="A65" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B65" s="11">
+        <v>11888</v>
+      </c>
+      <c r="C65" s="13">
+        <v>61170</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="30.75">
+      <c r="A66" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B66" s="11">
+        <v>11888</v>
+      </c>
+      <c r="C66" s="13">
+        <v>61171</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15.75">
+      <c r="A67" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B67" s="11">
+        <v>11396</v>
+      </c>
+      <c r="C67" s="13">
+        <v>61172</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15.75">
+      <c r="A68" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B68" s="11">
+        <v>23400</v>
+      </c>
+      <c r="C68" s="13">
+        <v>61173</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="7"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="14"/>
+    </row>
+    <row r="70" spans="1:3" ht="15.75">
+      <c r="A70" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B70" s="11">
+        <v>6195</v>
+      </c>
+      <c r="C70" s="13">
+        <v>61174</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15.75">
+      <c r="A71" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B71" s="11">
+        <v>11660</v>
+      </c>
+      <c r="C71" s="13">
+        <v>61175</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15.75">
+      <c r="A72" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B72" s="11">
+        <v>6124</v>
+      </c>
+      <c r="C72" s="13">
+        <v>61176</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15.75">
+      <c r="A73" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B73" s="11">
+        <v>7541</v>
+      </c>
+      <c r="C73" s="13">
+        <v>61177</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15.75">
+      <c r="A74" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B74" s="11">
+        <v>13156</v>
+      </c>
+      <c r="C74" s="13">
+        <v>61178</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15.75">
+      <c r="A75" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B75" s="11">
+        <v>8518</v>
+      </c>
+      <c r="C75" s="13">
+        <v>61179</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="7"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="14"/>
+    </row>
+    <row r="77" spans="1:3" ht="15.75">
+      <c r="A77" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B77" s="11">
+        <v>5447</v>
+      </c>
+      <c r="C77" s="13">
+        <v>61179</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="30.75">
+      <c r="A78" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B78" s="11">
+        <v>6124</v>
+      </c>
+      <c r="C78" s="13">
+        <v>61180</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="7"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="14"/>
+    </row>
+    <row r="80" spans="1:3" ht="15.75">
+      <c r="A80" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B80" s="11">
+        <v>6872</v>
+      </c>
+      <c r="C80" s="13">
+        <v>61181</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="30.75">
+      <c r="A81" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B81" s="11">
+        <v>6872</v>
+      </c>
+      <c r="C81" s="13">
+        <v>61182</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15.75">
+      <c r="A82" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B82" s="11">
+        <v>6872</v>
+      </c>
+      <c r="C82" s="13">
+        <v>61183</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="30.75">
+      <c r="A83" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B83" s="11">
+        <v>5297</v>
+      </c>
+      <c r="C83" s="13">
+        <v>61184</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="15.75">
+      <c r="A84" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B84" s="11">
+        <v>0</v>
+      </c>
+      <c r="C84" s="13">
+        <v>61185</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="15.75">
+      <c r="A85" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B85" s="11">
+        <v>7999</v>
+      </c>
+      <c r="C85" s="13">
+        <v>61186</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15.75">
+      <c r="A86" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B86" s="11">
+        <v>4840</v>
+      </c>
+      <c r="C86" s="13">
+        <v>61187</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="7"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="14"/>
+    </row>
+    <row r="88" spans="1:3" ht="15.75">
+      <c r="A88" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B88" s="11">
+        <v>4804</v>
+      </c>
+      <c r="C88" s="13">
+        <v>61189</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="30.75">
+      <c r="A89" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B89" s="11">
+        <v>3801</v>
+      </c>
+      <c r="C89" s="13">
+        <v>61190</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="15.75">
+      <c r="A90" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B90" s="11">
+        <v>4329</v>
+      </c>
+      <c r="C90" s="13">
+        <v>61191</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="7"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="14"/>
+    </row>
+    <row r="92" spans="1:3" ht="15.75">
+      <c r="A92" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B92" s="11">
+        <v>3133</v>
+      </c>
+      <c r="C92" s="13">
+        <v>61192</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="15.75">
+      <c r="A93" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B93" s="11">
+        <v>2235</v>
+      </c>
+      <c r="C93" s="13">
+        <v>61193</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="30.75">
+      <c r="A94" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B94" s="11">
+        <v>3053</v>
+      </c>
+      <c r="C94" s="13">
+        <v>61194</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="15.75">
+      <c r="A95" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B95" s="11"/>
+      <c r="C95" s="13">
+        <v>61195</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="15.75">
+      <c r="A96" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B96" s="11"/>
+      <c r="C96" s="13">
+        <v>61196</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="15.75">
+      <c r="A97" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B97" s="11"/>
+      <c r="C97" s="13">
+        <v>61197</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="30.75">
+      <c r="A98" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B98" s="11">
+        <v>2904</v>
+      </c>
+      <c r="C98" s="13">
+        <v>61198</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="7"/>
+      <c r="B99" s="11"/>
+      <c r="C99" s="14"/>
+    </row>
+    <row r="100" spans="1:3" ht="15.75">
+      <c r="A100" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B100" s="11">
+        <v>2455</v>
+      </c>
+      <c r="C100" s="13">
+        <v>61199</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="15.75">
+      <c r="A101" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B101" s="11">
+        <v>4998</v>
+      </c>
+      <c r="C101" s="13">
+        <v>61200</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="15.75">
+      <c r="A102" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B102" s="11">
+        <v>3282</v>
+      </c>
+      <c r="C102" s="13">
+        <v>61201</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="15.75">
+      <c r="A103" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B103" s="11">
+        <v>3247</v>
+      </c>
+      <c r="C103" s="13">
+        <v>61202</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B104" s="21">
+        <v>10578</v>
+      </c>
+      <c r="C104" s="23">
+        <v>61254</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="15.75">
+      <c r="A105" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B105" s="21">
+        <v>9750</v>
+      </c>
+      <c r="C105" s="23">
+        <v>61255</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B106" s="22">
+        <v>8896</v>
+      </c>
+      <c r="C106" s="23">
+        <v>61256</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B107" s="21">
+        <v>8078</v>
+      </c>
+      <c r="C107" s="23">
+        <v>61257</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="15.75">
+      <c r="A108" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B108" s="21">
+        <v>7691</v>
+      </c>
+      <c r="C108" s="23">
+        <v>61258</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B109" s="21">
+        <v>7136</v>
+      </c>
+      <c r="C109" s="23">
+        <v>61259</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B110" s="21">
+        <v>6713</v>
+      </c>
+      <c r="C110" s="23">
+        <v>61260</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B111" s="22">
+        <v>6080</v>
+      </c>
+      <c r="C111" s="23">
+        <v>61261</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B112" s="22">
+        <v>8403</v>
+      </c>
+      <c r="C112" s="23">
+        <v>61262</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B113" s="22">
+        <v>7603</v>
+      </c>
+      <c r="C113" s="23">
+        <v>61263</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="15.75">
+      <c r="A114" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B114" s="22">
+        <v>6942</v>
+      </c>
+      <c r="C114" s="23">
+        <v>61264</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B115" s="22">
+        <v>6248</v>
+      </c>
+      <c r="C115" s="23">
+        <v>61265</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B116" s="22">
+        <v>6010</v>
+      </c>
+      <c r="C116" s="23">
+        <v>61266</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B117" s="22">
+        <v>5385</v>
+      </c>
+      <c r="C117" s="23">
+        <v>61267</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B118" s="22">
+        <v>8774</v>
+      </c>
+      <c r="C118" s="23">
+        <v>61268</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B119" s="22">
+        <v>7410</v>
+      </c>
+      <c r="C119" s="23">
+        <v>61269</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B120" s="22">
+        <v>7295</v>
+      </c>
+      <c r="C120" s="23">
+        <v>61270</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B121" s="22">
+        <v>6151</v>
+      </c>
+      <c r="C121" s="23">
+        <v>61271</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B122" s="22">
+        <v>5940</v>
+      </c>
+      <c r="C122" s="23">
+        <v>61272</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B123" s="22">
+        <v>5315</v>
+      </c>
+      <c r="C123" s="23">
+        <v>61273</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B124" s="22">
+        <v>8536</v>
+      </c>
+      <c r="C124" s="23">
+        <v>61274</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B125" s="22">
+        <v>7691</v>
+      </c>
+      <c r="C125" s="23">
+        <v>61275</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="20"/>
+      <c r="B126" s="21"/>
+      <c r="C126" s="24"/>
+    </row>
+    <row r="127" spans="1:3" ht="30">
+      <c r="A127" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B127" s="22">
+        <v>10886</v>
+      </c>
+      <c r="C127" s="23">
+        <v>61276</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="30">
+      <c r="A128" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B128" s="22">
+        <v>10090</v>
+      </c>
+      <c r="C128" s="23">
+        <v>61277</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="31.5">
+      <c r="A129" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B129" s="22">
+        <v>9249</v>
+      </c>
+      <c r="C129" s="23">
+        <v>61278</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="30">
+      <c r="A130" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B130" s="22">
+        <v>8694</v>
+      </c>
+      <c r="C130" s="23">
+        <v>61279</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="30.75">
+      <c r="A131" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B131" s="22">
+        <v>7929</v>
+      </c>
+      <c r="C131" s="23">
+        <v>61280</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="30">
+      <c r="A132" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B132" s="22">
+        <v>7647</v>
+      </c>
+      <c r="C132" s="23">
+        <v>61281</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B133" s="22">
+        <v>6890</v>
+      </c>
+      <c r="C133" s="23">
+        <v>61282</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="30">
+      <c r="A134" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B134" s="22">
+        <v>9337</v>
+      </c>
+      <c r="C134" s="23">
+        <v>61283</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="30">
+      <c r="A135" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B135" s="22">
+        <v>9196</v>
+      </c>
+      <c r="C135" s="23">
+        <v>61284</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B136" s="22">
+        <v>8378</v>
+      </c>
+      <c r="C136" s="23">
+        <v>61285</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="30">
+      <c r="A137" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B137" s="22">
+        <v>7735</v>
+      </c>
+      <c r="C137" s="23">
+        <v>61286</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="31.5">
+      <c r="A138" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B138" s="22">
+        <v>6970</v>
+      </c>
+      <c r="C138" s="23">
+        <v>61287</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="30">
+      <c r="A139" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B139" s="22">
+        <v>6714</v>
+      </c>
+      <c r="C139" s="23">
+        <v>61288</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B140" s="22">
+        <v>5984</v>
+      </c>
+      <c r="C140" s="23">
+        <v>61289</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="20"/>
+      <c r="B141" s="21"/>
+      <c r="C141" s="24"/>
+    </row>
+    <row r="142" spans="1:3" ht="30">
+      <c r="A142" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B142" s="22">
+        <v>24473</v>
+      </c>
+      <c r="C142" s="23">
+        <v>61290</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B143" s="22">
+        <v>20381</v>
+      </c>
+      <c r="C143" s="23">
+        <v>61291</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="30">
+      <c r="A144" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B144" s="22">
+        <v>22009</v>
+      </c>
+      <c r="C144" s="23">
+        <v>61292</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="B145" s="22">
+        <v>17107</v>
+      </c>
+      <c r="C145" s="23">
+        <v>61293</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B146" s="22">
+        <v>16710</v>
+      </c>
+      <c r="C146" s="23">
+        <v>61294</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B147" s="22">
+        <v>15717</v>
+      </c>
+      <c r="C147" s="23">
+        <v>61295</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B148" s="22">
+        <v>13341</v>
+      </c>
+      <c r="C148" s="23">
+        <v>61296</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B149" s="22">
+        <v>17186</v>
+      </c>
+      <c r="C149" s="23">
+        <v>61297</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B150" s="22">
+        <v>13913</v>
+      </c>
+      <c r="C150" s="23">
+        <v>61298</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B151" s="22">
+        <v>14317</v>
+      </c>
+      <c r="C151" s="23">
+        <v>61299</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B152" s="22">
+        <v>13173</v>
+      </c>
+      <c r="C152" s="23">
+        <v>61300</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B153" s="22">
+        <v>10762</v>
+      </c>
+      <c r="C153" s="23">
+        <v>61301</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B154" s="22">
+        <v>9407</v>
+      </c>
+      <c r="C154" s="23">
+        <v>61302</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B155" s="22">
+        <v>9574</v>
+      </c>
+      <c r="C155" s="23">
+        <v>61303</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B156" s="22">
+        <v>15549</v>
+      </c>
+      <c r="C156" s="23">
+        <v>61304</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" t="s">
+        <v>136</v>
+      </c>
+      <c r="B157" s="36">
+        <v>237</v>
+      </c>
+      <c r="C157">
+        <v>61203</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="30">
+      <c r="A158" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B158" s="36">
+        <v>211</v>
+      </c>
+      <c r="C158">
+        <v>61204</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="30">
+      <c r="A159" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B159" s="36">
+        <v>202</v>
+      </c>
+      <c r="C159">
+        <v>61205</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" t="s">
+        <v>139</v>
+      </c>
+      <c r="B160" s="36">
+        <v>413</v>
+      </c>
+      <c r="C160">
+        <v>61206</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="30">
+      <c r="A161" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B161" s="36">
+        <v>4330</v>
+      </c>
+      <c r="C161">
+        <v>61207</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="B162" s="36">
+        <v>0</v>
+      </c>
+      <c r="C162">
+        <v>61208</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" t="s">
+        <v>142</v>
+      </c>
+      <c r="B163" s="36">
+        <v>800</v>
+      </c>
+      <c r="C163">
+        <v>61209</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="30">
+      <c r="A164" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B164" s="36">
+        <v>431</v>
+      </c>
+      <c r="C164">
+        <v>61210</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="30">
+      <c r="A165" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B165" s="36">
+        <v>431</v>
+      </c>
+      <c r="C165">
+        <v>61211</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="30">
+      <c r="A166" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B166" s="36">
+        <v>915</v>
+      </c>
+      <c r="C166">
+        <v>61212</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="30">
+      <c r="A167" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B167" s="36">
+        <v>695</v>
+      </c>
+      <c r="C167">
+        <v>61213</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="30">
+      <c r="A168" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B168" s="36">
+        <v>968</v>
+      </c>
+      <c r="C168">
+        <v>61214</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="30">
+      <c r="A169" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B169" s="36">
+        <v>968</v>
+      </c>
+      <c r="C169">
+        <v>61215</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="30">
+      <c r="A170" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B170" s="36">
+        <v>1883</v>
+      </c>
+      <c r="C170">
+        <v>61216</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B171" s="36">
+        <v>1452</v>
+      </c>
+      <c r="C171">
+        <v>61217</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="30">
+      <c r="A172" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B172" s="36">
+        <v>1637</v>
+      </c>
+      <c r="C172">
+        <v>61218</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="26"/>
+      <c r="B173" s="36"/>
+      <c r="C173" s="26"/>
+    </row>
+    <row r="174" spans="1:3" ht="30">
+      <c r="A174" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B174" s="36">
+        <v>818</v>
+      </c>
+      <c r="C174">
+        <v>61219</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B175" s="36">
+        <v>492</v>
+      </c>
+      <c r="C175">
+        <v>61220</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B176" s="36">
+        <v>492</v>
+      </c>
+      <c r="C176">
+        <v>61221</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="30">
+      <c r="A177" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B177" s="36">
+        <v>818</v>
+      </c>
+      <c r="C177">
+        <v>61222</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="30">
+      <c r="A178" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B178" s="36">
+        <v>1689</v>
+      </c>
+      <c r="C178">
+        <v>61223</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="30">
+      <c r="A179" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B179" s="36">
+        <v>1689</v>
+      </c>
+      <c r="C179">
+        <v>61224</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="26"/>
+      <c r="B180" s="36"/>
+      <c r="C180" s="26"/>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B181" s="36">
+        <v>84</v>
+      </c>
+      <c r="C181">
+        <v>61225</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B182" s="36">
+        <v>91</v>
+      </c>
+      <c r="C182">
+        <v>61226</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B183" s="36">
+        <v>189</v>
+      </c>
+      <c r="C183">
+        <v>61227</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B184" s="36">
+        <v>228</v>
+      </c>
+      <c r="C184">
+        <v>61228</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B185" s="36">
+        <v>712</v>
+      </c>
+      <c r="C185">
+        <v>61229</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="30.75">
+      <c r="A186" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="B186" s="36">
+        <v>1716</v>
+      </c>
+      <c r="C186">
+        <v>61230</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B187" s="36">
+        <v>1355</v>
+      </c>
+      <c r="C187">
+        <v>61231</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B188" s="36">
+        <v>1355</v>
+      </c>
+      <c r="C188">
+        <v>61232</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B189" s="36">
+        <v>2895</v>
+      </c>
+      <c r="C189">
+        <v>61233</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B190" s="36">
+        <v>8896</v>
+      </c>
+      <c r="C190">
+        <v>61234</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="30">
+      <c r="A191" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B191" s="36">
+        <v>10472</v>
+      </c>
+      <c r="C191">
+        <v>61235</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="26"/>
+      <c r="B192" s="36"/>
+      <c r="C192" s="26"/>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B193" s="36">
+        <v>53</v>
+      </c>
+      <c r="C193">
+        <v>61236</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B194" s="36">
+        <v>102</v>
+      </c>
+      <c r="C194">
+        <v>61237</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="30">
+      <c r="A195" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B195" s="36">
+        <v>102</v>
+      </c>
+      <c r="C195">
+        <v>61238</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B196" s="36">
+        <v>132</v>
+      </c>
+      <c r="C196">
+        <v>61239</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B197" s="36">
+        <v>158</v>
+      </c>
+      <c r="C197">
+        <v>61240</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="30">
+      <c r="A198" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B198" s="36">
+        <v>281</v>
+      </c>
+      <c r="C198">
+        <v>61241</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B199" s="36">
+        <v>1100</v>
+      </c>
+      <c r="C199">
+        <v>61242</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="26"/>
+      <c r="B200" s="36"/>
+      <c r="C200" s="26"/>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B201" s="36">
+        <v>176</v>
+      </c>
+      <c r="C201">
+        <v>61243</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="B202" s="36">
+        <v>184</v>
+      </c>
+      <c r="C202">
+        <v>61244</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B203" s="36">
+        <v>255</v>
+      </c>
+      <c r="C203">
+        <v>61245</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B204" s="36">
+        <v>290</v>
+      </c>
+      <c r="C204">
+        <v>61246</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B205" s="36">
+        <v>431</v>
+      </c>
+      <c r="C205">
+        <v>61247</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B206" s="36">
+        <v>1328</v>
+      </c>
+      <c r="C206">
+        <v>61248</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B207" s="36">
+        <v>1672</v>
+      </c>
+      <c r="C207">
+        <v>61249</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B208" s="36">
+        <v>2728</v>
+      </c>
+      <c r="C208">
+        <v>61250</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="26"/>
+      <c r="B209" s="36"/>
+      <c r="C209" s="26"/>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B210" s="36">
+        <v>396</v>
+      </c>
+      <c r="C210">
+        <v>61251</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B211" s="36">
+        <v>457</v>
+      </c>
+      <c r="C211">
+        <v>61252</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="30">
+      <c r="A212" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="B212" s="36">
+        <v>633</v>
+      </c>
+      <c r="C212" s="39">
+        <v>61253</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="B213" s="36">
+        <v>633</v>
+      </c>
+      <c r="C213" s="39">
+        <v>61254</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="B214" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="B215" s="38">
+        <v>0</v>
+      </c>
+      <c r="C215">
+        <v>61379</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="B216" s="38">
+        <v>0</v>
+      </c>
+      <c r="C216">
+        <v>61380</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="B217" s="38">
+        <v>0</v>
+      </c>
+      <c r="C217">
+        <v>61381</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="B218" s="38">
+        <v>0</v>
+      </c>
+      <c r="C218">
+        <v>61382</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="29.25">
+      <c r="A219" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="B219" s="38">
+        <v>0</v>
+      </c>
+      <c r="C219">
+        <v>61383</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="B220" s="38">
+        <v>0</v>
+      </c>
+      <c r="C220">
+        <v>61384</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="B221" s="38">
+        <v>0</v>
+      </c>
+      <c r="C221">
+        <v>61385</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="B222" s="38">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>61386</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="29.25">
+      <c r="A223" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="B223" s="38">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>61387</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="30">
+      <c r="A224" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="B224" s="36">
+        <v>5725.5</v>
+      </c>
+      <c r="C224">
+        <v>61388</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="B225" s="36">
+        <v>10806</v>
+      </c>
+      <c r="C225">
+        <v>61389</v>
       </c>
     </row>
   </sheetData>
